--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vish_\OneDrive\Documents\UiPath\RoboticEnterpriseFramework_Excel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vish_\OneDrive\Documents\UiPath\Re_Excel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED94E5B-D1FB-4721-B137-95A65F8393E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8082856-B6FC-4742-985C-CAF8C92E50DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,10 +195,10 @@
     <t>Data\Outputs</t>
   </si>
   <si>
-    <t>ExcelExt</t>
-  </si>
-  <si>
-    <t>.csv</t>
+    <t>FileExtensions</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
   </si>
 </sst>
 </file>
